--- a/info/MONSTER.xlsx
+++ b/info/MONSTER.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\html5game\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2AA36-78B4-4F43-A85C-7A7F6D075ACF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9DE621-F49A-465F-B84F-C32E873375AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MONSTER" sheetId="1" r:id="rId1"/>
+    <sheet name="MAP" sheetId="2" r:id="rId2"/>
+    <sheet name="CONSUMABLE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +70,46 @@
   </si>
   <si>
     <t>Underground Frog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONSTER LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST UPDATE: 2020-07-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUTORIAL MAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결된 맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDERGROUND VILLAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDERGROUND PIPE #1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNDERGROUND PIPE #2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSUMABLE LIST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +141,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -137,16 +194,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,10 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -441,95 +615,423 @@
     <col min="2" max="2" width="24.4140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D6" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D7" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D9" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D10" s="3">
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7179F0C7-DBDA-442D-A566-E8DAB37A55E5}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="26.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8012AD-212A-4E0D-AAD5-14999B2D5B4E}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="26.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>